--- a/jpcore-r4/feature/swg45-JP_Condition_Diagnosis/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/feature/swg45-JP_Condition_Diagnosis/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-01T16:38:53+00:00</t>
+    <t>2024-08-31T09:10:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg45-JP_Condition_Diagnosis/StructureDefinition-jp-immunization-manufactureddate.xlsx
+++ b/jpcore-r4/feature/swg45-JP_Condition_Diagnosis/StructureDefinition-jp-immunization-manufactureddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-31T09:10:51+00:00</t>
+    <t>2024-08-31T09:13:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
